--- a/biology/Zoologie/Bouscarle_des_bambous/Bouscarle_des_bambous.xlsx
+++ b/biology/Zoologie/Bouscarle_des_bambous/Bouscarle_des_bambous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Locustella alfredi
 La Bouscarle des bambous (Locustella alfredi) est une espèce d'oiseaux de la famille des Locustellidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en République démocratique du Congo, en Éthiopie, en Ouganda, au Soudan, en Tanzanie et en Zambie.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les broussailles et les montagnes humides tropicales et subtropicales.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alfred Newton (1829–1907), zoologiste et ornithologue britannique.
 </t>
@@ -605,9 +623,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1], l'espèce était rattachée au genre Bradypterus. Certaines sources [2],[3],[4] peuvent toujours la mentionner sous le nom Bradypterus alfredi.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la classification de référence du Congrès ornithologique international  (version 8.2, 2018), l'espèce était rattachée au genre Bradypterus. Certaines sources  peuvent toujours la mentionner sous le nom Bradypterus alfredi.
 </t>
         </is>
       </c>
